--- a/0. Nomina/2. Descuentos - Fondo y Anticipos/2025/00. Formato - Fondo 2025.xlsx
+++ b/0. Nomina/2. Descuentos - Fondo y Anticipos/2025/00. Formato - Fondo 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\0. Nomina\2. Descuentos - Fondo y Anticipos\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180B62DA-13AA-4E05-87A8-A543F0828235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABC8F3E-6484-4293-AC98-F8CED4C8A855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{D50646E0-9162-4966-B9F8-2A68DF15F7F3}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="15375" windowHeight="7785" activeTab="1" xr2:uid="{D50646E0-9162-4966-B9F8-2A68DF15F7F3}"/>
   </bookViews>
   <sheets>
     <sheet name="0. Profesionales" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,12 @@
     <sheet name="4. Interés" sheetId="6" r:id="rId5"/>
     <sheet name="5. Rellena" sheetId="1" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="NombreProfesionales">[1]!Tabla_Profesionales[Profesional]</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="78">
   <si>
     <t>Beto Garcia</t>
   </si>
@@ -350,6 +356,9 @@
       </rPr>
       <t>".</t>
     </r>
+  </si>
+  <si>
+    <t>Vannessa Peña</t>
   </si>
 </sst>
 </file>
@@ -867,7 +876,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1087,6 +1096,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3864,25 +3874,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3897,10 +3907,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3995,22 +4005,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -4028,10 +4038,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4652,25 +4662,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -7760,6 +7770,25 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="lista de precios"/>
+      <sheetName val="producto"/>
+      <sheetName val="Descuentos"/>
+      <sheetName val="Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CDFC7129-F019-4861-A773-E5DADA19DB71}" name="Consolidado" displayName="Consolidado" ref="B5:L21" totalsRowCount="1" headerRowDxfId="122" dataDxfId="120" totalsRowDxfId="118" headerRowBorderDxfId="121" tableBorderDxfId="119">
   <autoFilter ref="B5:L20" xr:uid="{CDFC7129-F019-4861-A773-E5DADA19DB71}"/>
@@ -8301,9 +8330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876341DC-4D92-49CA-BA4E-54274A2F570C}">
   <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8434,7 +8461,7 @@
       </c>
       <c r="E7" s="34">
         <f>+SUMIF(Ahorro_Total[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Ahorro_Total[Valor])</f>
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="F7" s="34">
         <f>+SUMIF(Tabla5[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Tabla5[Utilidad])</f>
@@ -8448,15 +8475,15 @@
       </c>
       <c r="J7" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)</f>
-        <v>123350</v>
+        <v>73350</v>
       </c>
       <c r="K7" s="48">
         <f>IFERROR((Consolidado[[#This Row],[Total]]-E7)/Consolidado[[#This Row],[1. Ahorro]],0)</f>
-        <v>0.23350000000000001</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="L7" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)*IF(Consolidado[[#This Row],[Pagado]]=1,0,1)</f>
-        <v>123350</v>
+        <v>73350</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -8471,7 +8498,7 @@
       </c>
       <c r="E8" s="34">
         <f>+SUMIF(Ahorro_Total[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Ahorro_Total[Valor])</f>
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="F8" s="34">
         <f>+SUMIF(Tabla5[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Tabla5[Utilidad])</f>
@@ -8485,15 +8512,15 @@
       </c>
       <c r="J8" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)</f>
-        <v>123350</v>
+        <v>73350</v>
       </c>
       <c r="K8" s="48">
         <f>IFERROR((Consolidado[[#This Row],[Total]]-E8)/Consolidado[[#This Row],[1. Ahorro]],0)</f>
-        <v>0.23350000000000001</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="L8" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)*IF(Consolidado[[#This Row],[Pagado]]=1,0,1)</f>
-        <v>123350</v>
+        <v>73350</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -8508,7 +8535,7 @@
       </c>
       <c r="E9" s="34">
         <f>+SUMIF(Ahorro_Total[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Ahorro_Total[Valor])</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="F9" s="34">
         <f>+SUMIF(Tabla5[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Tabla5[Utilidad])</f>
@@ -8522,15 +8549,15 @@
       </c>
       <c r="J9" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)</f>
-        <v>8750</v>
+        <v>58750</v>
       </c>
       <c r="K9" s="48">
         <f>IFERROR((Consolidado[[#This Row],[Total]]-E9)/Consolidado[[#This Row],[1. Ahorro]],0)</f>
-        <v>0</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="L9" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)*IF(Consolidado[[#This Row],[Pagado]]=1,0,1)</f>
-        <v>8750</v>
+        <v>58750</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -8545,7 +8572,7 @@
       </c>
       <c r="E10" s="34">
         <f>+SUMIF(Ahorro_Total[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Ahorro_Total[Valor])</f>
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="F10" s="34">
         <f>+SUMIF(Tabla5[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Tabla5[Utilidad])</f>
@@ -8559,15 +8586,15 @@
       </c>
       <c r="J10" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)</f>
-        <v>140850</v>
+        <v>90850</v>
       </c>
       <c r="K10" s="48">
         <f>IFERROR((Consolidado[[#This Row],[Total]]-E10)/Consolidado[[#This Row],[1. Ahorro]],0)</f>
-        <v>0.40849999999999997</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="L10" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)*IF(Consolidado[[#This Row],[Pagado]]=1,0,1)</f>
-        <v>140850</v>
+        <v>90850</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -8582,7 +8609,7 @@
       </c>
       <c r="E11" s="34">
         <f>+SUMIF(Ahorro_Total[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Ahorro_Total[Valor])</f>
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="F11" s="34">
         <f>+SUMIF(Tabla5[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Tabla5[Utilidad])</f>
@@ -8596,15 +8623,15 @@
       </c>
       <c r="J11" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)</f>
-        <v>123350</v>
+        <v>73350</v>
       </c>
       <c r="K11" s="48">
         <f>IFERROR((Consolidado[[#This Row],[Total]]-E11)/Consolidado[[#This Row],[1. Ahorro]],0)</f>
-        <v>0.23350000000000001</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="L11" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)*IF(Consolidado[[#This Row],[Pagado]]=1,0,1)</f>
-        <v>123350</v>
+        <v>73350</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -8619,7 +8646,7 @@
       </c>
       <c r="E12" s="34">
         <f>+SUMIF(Ahorro_Total[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Ahorro_Total[Valor])</f>
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="F12" s="34">
         <f>+SUMIF(Tabla5[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Tabla5[Utilidad])</f>
@@ -8633,15 +8660,15 @@
       </c>
       <c r="J12" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)</f>
-        <v>223350</v>
+        <v>123350</v>
       </c>
       <c r="K12" s="48">
         <f>IFERROR((Consolidado[[#This Row],[Total]]-E12)/Consolidado[[#This Row],[1. Ahorro]],0)</f>
-        <v>0.11675000000000001</v>
+        <v>0.23350000000000001</v>
       </c>
       <c r="L12" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)*IF(Consolidado[[#This Row],[Pagado]]=1,0,1)</f>
-        <v>223350</v>
+        <v>123350</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -8841,7 +8868,7 @@
       </c>
       <c r="E18" s="34">
         <f>+SUMIF(Ahorro_Total[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Ahorro_Total[Valor])</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="34">
         <f>+SUMIF(Tabla5[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Tabla5[Utilidad])</f>
@@ -8855,7 +8882,7 @@
       </c>
       <c r="J18" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="48">
         <f>IFERROR((Consolidado[[#This Row],[Total]]-E18)/Consolidado[[#This Row],[1. Ahorro]],0)</f>
@@ -8878,7 +8905,7 @@
       </c>
       <c r="E19" s="34">
         <f>+SUMIF(Ahorro_Total[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Ahorro_Total[Valor])</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="34">
         <f>+SUMIF(Tabla5[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Tabla5[Utilidad])</f>
@@ -8892,7 +8919,7 @@
       </c>
       <c r="J19" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="48">
         <f>IFERROR((Consolidado[[#This Row],[Total]]-E19)/Consolidado[[#This Row],[1. Ahorro]],0)</f>
@@ -8949,12 +8976,12 @@
       <c r="I21" s="49"/>
       <c r="J21" s="49">
         <f>SUBTOTAL(109,Consolidado[Total])</f>
-        <v>1074700</v>
+        <v>624700</v>
       </c>
       <c r="K21" s="47"/>
       <c r="L21" s="50">
         <f>SUBTOTAL(109,Consolidado[Saldo])</f>
-        <v>833850</v>
+        <v>583850</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -8986,7 +9013,7 @@
   <dimension ref="B1:AH32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D3" sqref="D3:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9100,10 +9127,10 @@
     </row>
     <row r="3" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="38">
-        <v>45672</v>
+        <v>45762</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D3" s="40">
         <v>50000</v>
@@ -9113,7 +9140,7 @@
     </row>
     <row r="4" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="38">
-        <v>45672</v>
+        <v>45762</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>3</v>
@@ -9204,13 +9231,13 @@
     </row>
     <row r="5" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38">
-        <v>45672</v>
+        <v>45762</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="40">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="61"/>
@@ -9320,10 +9347,10 @@
     </row>
     <row r="6" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="38">
-        <v>45672</v>
+        <v>45762</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" s="40">
         <v>50000</v>
@@ -9335,11 +9362,11 @@
       </c>
       <c r="J6" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],J$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],K$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="L6" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],L$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -9359,7 +9386,7 @@
       </c>
       <c r="P6" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],P$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="Q6" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],Q$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -9431,18 +9458,18 @@
       </c>
       <c r="AH6" s="40">
         <f>+SUM(Ahorro_Partes[[#This Row],[15/01/2025]:[31/12/2025]])</f>
-        <v>100000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="7" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="38">
-        <v>45672</v>
+        <v>45762</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D7" s="40">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="F7" s="60"/>
       <c r="G7" s="61"/>
@@ -9451,11 +9478,11 @@
       </c>
       <c r="J7" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],J$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],K$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="L7" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],L$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -9475,7 +9502,7 @@
       </c>
       <c r="P7" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],P$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="Q7" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],Q$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -9547,15 +9574,15 @@
       </c>
       <c r="AH7" s="40">
         <f>+SUM(Ahorro_Partes[[#This Row],[15/01/2025]:[31/12/2025]])</f>
-        <v>100000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="8" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="38">
-        <v>45672</v>
+        <v>45762</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="40">
         <v>50000</v>
@@ -9591,7 +9618,7 @@
       </c>
       <c r="P8" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],P$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="Q8" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],Q$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -9663,15 +9690,15 @@
       </c>
       <c r="AH8" s="40">
         <f>+SUM(Ahorro_Partes[[#This Row],[15/01/2025]:[31/12/2025]])</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="9" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="38">
-        <v>45672</v>
+        <v>45762</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" s="40">
         <v>50000</v>
@@ -9683,11 +9710,11 @@
       </c>
       <c r="J9" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],J$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],K$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="L9" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],L$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -9707,7 +9734,7 @@
       </c>
       <c r="P9" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],P$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="Q9" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],Q$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -9779,15 +9806,15 @@
       </c>
       <c r="AH9" s="40">
         <f>+SUM(Ahorro_Partes[[#This Row],[15/01/2025]:[31/12/2025]])</f>
-        <v>100000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="10" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="38">
-        <v>45672</v>
+        <v>45762</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="D10" s="40">
         <v>50000</v>
@@ -9799,11 +9826,11 @@
       </c>
       <c r="J10" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],J$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],K$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="L10" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],L$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -9823,7 +9850,7 @@
       </c>
       <c r="P10" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],P$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="Q10" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],Q$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -9895,19 +9922,12 @@
       </c>
       <c r="AH10" s="40">
         <f>+SUM(Ahorro_Partes[[#This Row],[15/01/2025]:[31/12/2025]])</f>
-        <v>100000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="11" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="38">
-        <v>45688</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="40">
-        <v>50000</v>
-      </c>
+      <c r="B11" s="38"/>
+      <c r="D11" s="40"/>
       <c r="F11" s="60"/>
       <c r="G11" s="61"/>
       <c r="I11" s="25" t="s">
@@ -9915,11 +9935,11 @@
       </c>
       <c r="J11" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],J$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],K$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="L11" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],L$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -9939,7 +9959,7 @@
       </c>
       <c r="P11" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],P$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="Q11" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],Q$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -10011,19 +10031,12 @@
       </c>
       <c r="AH11" s="40">
         <f>+SUM(Ahorro_Partes[[#This Row],[15/01/2025]:[31/12/2025]])</f>
-        <v>200000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="12" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="38">
-        <v>45688</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="40">
-        <v>50000</v>
-      </c>
+      <c r="B12" s="38"/>
+      <c r="D12" s="40"/>
       <c r="F12" s="60"/>
       <c r="G12" s="61"/>
       <c r="I12" s="25" t="s">
@@ -10031,7 +10044,7 @@
       </c>
       <c r="J12" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],J$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],K$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -10055,7 +10068,7 @@
       </c>
       <c r="P12" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],P$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="Q12" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],Q$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -10131,15 +10144,8 @@
       </c>
     </row>
     <row r="13" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="38">
-        <v>45688</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="40">
-        <v>50000</v>
-      </c>
+      <c r="B13" s="38"/>
+      <c r="D13" s="40"/>
       <c r="F13" s="60"/>
       <c r="G13" s="61"/>
       <c r="I13" s="26" t="s">
@@ -10247,15 +10253,8 @@
       </c>
     </row>
     <row r="14" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="38">
-        <v>45688</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="40">
-        <v>50000</v>
-      </c>
+      <c r="B14" s="38"/>
+      <c r="D14" s="40"/>
       <c r="F14" s="60"/>
       <c r="G14" s="61"/>
       <c r="I14" s="25" t="s">
@@ -10363,15 +10362,8 @@
       </c>
     </row>
     <row r="15" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="38">
-        <v>45688</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="40">
-        <v>50000</v>
-      </c>
+      <c r="B15" s="38"/>
+      <c r="D15" s="40"/>
       <c r="F15" s="60"/>
       <c r="G15" s="61"/>
       <c r="I15" s="25" t="s">
@@ -10479,15 +10471,8 @@
       </c>
     </row>
     <row r="16" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="38">
-        <v>45688</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="40">
-        <v>100000</v>
-      </c>
+      <c r="B16" s="38"/>
+      <c r="D16" s="40"/>
       <c r="F16" s="60"/>
       <c r="G16" s="61"/>
       <c r="I16" s="25" t="s">
@@ -10595,15 +10580,8 @@
       </c>
     </row>
     <row r="17" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="38">
-        <v>45688</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="40">
-        <v>50000</v>
-      </c>
+      <c r="B17" s="38"/>
+      <c r="D17" s="40"/>
       <c r="F17" s="60"/>
       <c r="G17" s="61"/>
       <c r="I17" s="25" t="s">
@@ -10611,11 +10589,11 @@
       </c>
       <c r="J17" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],J$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],K$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="L17" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],L$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -10707,7 +10685,7 @@
       </c>
       <c r="AH17" s="40">
         <f>+SUM(Ahorro_Partes[[#This Row],[15/01/2025]:[31/12/2025]])</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10720,11 +10698,11 @@
       </c>
       <c r="J18" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],J$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],K$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="L18" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],L$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -10816,7 +10794,7 @@
       </c>
       <c r="AH18" s="40">
         <f>+SUM(Ahorro_Partes[[#This Row],[15/01/2025]:[31/12/2025]])</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10832,7 +10810,7 @@
       </c>
       <c r="G20" s="65">
         <f>+SUM(Ahorro_Partes[Total])</f>
-        <v>850000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="21" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10907,7 +10885,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14445505-0D8A-4644-B527-FBCB4FEC76A6}">
   <dimension ref="B1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11333,14 +11313,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8B92AB-ADD9-44B4-9FFD-3954EF540DEB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="83"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="83"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/0. Nomina/2. Descuentos - Fondo y Anticipos/2025/00. Formato - Fondo 2025.xlsx
+++ b/0. Nomina/2. Descuentos - Fondo y Anticipos/2025/00. Formato - Fondo 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\0. Nomina\2. Descuentos - Fondo y Anticipos\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABC8F3E-6484-4293-AC98-F8CED4C8A855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D2B778-AEC1-4A2A-8561-2615F7E009B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="15375" windowHeight="7785" activeTab="1" xr2:uid="{D50646E0-9162-4966-B9F8-2A68DF15F7F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{D50646E0-9162-4966-B9F8-2A68DF15F7F3}"/>
   </bookViews>
   <sheets>
     <sheet name="0. Profesionales" sheetId="3" r:id="rId1"/>
@@ -20,12 +20,6 @@
     <sheet name="4. Interés" sheetId="6" r:id="rId5"/>
     <sheet name="5. Rellena" sheetId="1" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="NombreProfesionales">[1]!Tabla_Profesionales[Profesional]</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="74">
   <si>
     <t>Beto Garcia</t>
   </si>
@@ -158,9 +152,6 @@
     <t>Quincena</t>
   </si>
   <si>
-    <t>Sobrebarriga</t>
-  </si>
-  <si>
     <t>Costo</t>
   </si>
   <si>
@@ -180,12 +171,6 @@
   </si>
   <si>
     <t>Saldo</t>
-  </si>
-  <si>
-    <t>Cervezas</t>
-  </si>
-  <si>
-    <t>Papa, yuca y arroz…</t>
   </si>
   <si>
     <t>15/01/2025</t>
@@ -356,9 +341,6 @@
       </rPr>
       <t>".</t>
     </r>
-  </si>
-  <si>
-    <t>Vannessa Peña</t>
   </si>
 </sst>
 </file>
@@ -1045,6 +1027,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1096,7 +1079,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1104,6 +1086,31 @@
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="123">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2280,31 +2287,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3874,25 +3856,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3907,10 +3889,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4005,25 +3987,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4038,10 +4020,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4662,25 +4644,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -7770,25 +7752,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="lista de precios"/>
-      <sheetName val="producto"/>
-      <sheetName val="Descuentos"/>
-      <sheetName val="Data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CDFC7129-F019-4861-A773-E5DADA19DB71}" name="Consolidado" displayName="Consolidado" ref="B5:L21" totalsRowCount="1" headerRowDxfId="122" dataDxfId="120" totalsRowDxfId="118" headerRowBorderDxfId="121" tableBorderDxfId="119">
   <autoFilter ref="B5:L20" xr:uid="{CDFC7129-F019-4861-A773-E5DADA19DB71}"/>
@@ -7825,8 +7788,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76573DEA-C7CA-454B-B2D0-8BCDC958E055}" name="Ahorro_Total" displayName="Ahorro_Total" ref="B2:D32" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92">
-  <autoFilter ref="B2:D32" xr:uid="{76573DEA-C7CA-454B-B2D0-8BCDC958E055}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{76573DEA-C7CA-454B-B2D0-8BCDC958E055}" name="Ahorro_Total" displayName="Ahorro_Total" ref="B2:D19" totalsRowShown="0" headerRowDxfId="95" dataDxfId="93" headerRowBorderDxfId="94" tableBorderDxfId="92">
+  <autoFilter ref="B2:D19" xr:uid="{76573DEA-C7CA-454B-B2D0-8BCDC958E055}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D17">
     <sortCondition ref="B2:B17"/>
   </sortState>
@@ -7844,79 +7807,79 @@
   <autoFilter ref="I4:AH18" xr:uid="{28A630D4-3CBF-414A-8760-6FD4863A544A}"/>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{4BAA0739-D483-490C-8AF3-33E4D30244C1}" name="Profesional" dataDxfId="84"/>
-    <tableColumn id="2" xr3:uid="{5F69C1DA-4226-42E1-A99C-8E1995D56CBC}" name="15/01/2025" dataDxfId="83" dataCellStyle="Moneda">
+    <tableColumn id="2" xr3:uid="{5F69C1DA-4226-42E1-A99C-8E1995D56CBC}" name="15/01/2025" dataDxfId="0" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],J$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{7879FAEC-F0D6-407D-96EC-61B6692BE696}" name="31/01/2025" dataDxfId="82" dataCellStyle="Moneda">
+    <tableColumn id="3" xr3:uid="{7879FAEC-F0D6-407D-96EC-61B6692BE696}" name="31/01/2025" dataDxfId="83" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],K$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8DF6E222-5649-496A-8115-FA89CC7D4C22}" name="15/02/2025" dataDxfId="81" dataCellStyle="Moneda">
+    <tableColumn id="4" xr3:uid="{8DF6E222-5649-496A-8115-FA89CC7D4C22}" name="15/02/2025" dataDxfId="82" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],L$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D8B04F57-97B3-4EA1-97A9-15890C29AB66}" name="28/02/2025" dataDxfId="80" dataCellStyle="Moneda">
+    <tableColumn id="5" xr3:uid="{D8B04F57-97B3-4EA1-97A9-15890C29AB66}" name="28/02/2025" dataDxfId="81" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],M$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5743B63E-92D3-4ACF-9903-6780CB9DC80F}" name="15/03/2025" dataDxfId="79" dataCellStyle="Moneda">
+    <tableColumn id="6" xr3:uid="{5743B63E-92D3-4ACF-9903-6780CB9DC80F}" name="15/03/2025" dataDxfId="80" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],N$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{628593EE-5A0C-4AF2-9E91-5D263D50B9B7}" name="31/03/2025" dataDxfId="78" dataCellStyle="Moneda">
+    <tableColumn id="7" xr3:uid="{628593EE-5A0C-4AF2-9E91-5D263D50B9B7}" name="31/03/2025" dataDxfId="79" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],O$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{68230C15-5706-426F-B929-AC6DF2435BCE}" name="15/04/2025" dataDxfId="77" dataCellStyle="Moneda">
+    <tableColumn id="8" xr3:uid="{68230C15-5706-426F-B929-AC6DF2435BCE}" name="15/04/2025" dataDxfId="78" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],P$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{997AFD68-E8A1-4863-883D-273756EFF1AE}" name="30/04/2025" dataDxfId="76" dataCellStyle="Moneda">
+    <tableColumn id="9" xr3:uid="{997AFD68-E8A1-4863-883D-273756EFF1AE}" name="30/04/2025" dataDxfId="77" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],Q$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{41E48C57-7650-41DB-97DB-291103817B76}" name="15/05/2025" dataDxfId="75" dataCellStyle="Moneda">
+    <tableColumn id="10" xr3:uid="{41E48C57-7650-41DB-97DB-291103817B76}" name="15/05/2025" dataDxfId="76" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],R$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{765E1FC9-577A-4942-A7D1-835A411BB44E}" name="31/05/2025" dataDxfId="74" dataCellStyle="Moneda">
+    <tableColumn id="11" xr3:uid="{765E1FC9-577A-4942-A7D1-835A411BB44E}" name="31/05/2025" dataDxfId="75" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],S$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{BBF12F7D-9B30-45E3-A327-682EA9CD82A2}" name="15/06/2025" dataDxfId="73" dataCellStyle="Moneda">
+    <tableColumn id="12" xr3:uid="{BBF12F7D-9B30-45E3-A327-682EA9CD82A2}" name="15/06/2025" dataDxfId="74" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],T$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{246CB9B1-E062-46FC-8FA9-A2EE0AAA70E6}" name="30/06/2025" dataDxfId="72" dataCellStyle="Moneda">
+    <tableColumn id="13" xr3:uid="{246CB9B1-E062-46FC-8FA9-A2EE0AAA70E6}" name="30/06/2025" dataDxfId="73" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],U$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{23899DEC-DB5A-430C-ACEB-34C5D0F9FD9F}" name="15/07/2025" dataDxfId="71" dataCellStyle="Moneda">
+    <tableColumn id="14" xr3:uid="{23899DEC-DB5A-430C-ACEB-34C5D0F9FD9F}" name="15/07/2025" dataDxfId="72" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],V$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{E94F93E5-91FC-4E34-BDA0-6BA3AB9F894F}" name="31/07/2025" dataDxfId="70" dataCellStyle="Moneda">
+    <tableColumn id="15" xr3:uid="{E94F93E5-91FC-4E34-BDA0-6BA3AB9F894F}" name="31/07/2025" dataDxfId="71" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],W$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{2393C2EC-B0BE-44A0-BA33-4A2F33E7B813}" name="15/08/2025" dataDxfId="69" dataCellStyle="Moneda">
+    <tableColumn id="16" xr3:uid="{2393C2EC-B0BE-44A0-BA33-4A2F33E7B813}" name="15/08/2025" dataDxfId="70" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],X$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{31750A5D-6B29-47B0-86F4-F554B177BF2E}" name="31/08/2025" dataDxfId="68" dataCellStyle="Moneda">
+    <tableColumn id="17" xr3:uid="{31750A5D-6B29-47B0-86F4-F554B177BF2E}" name="31/08/2025" dataDxfId="69" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],Y$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{1E06C66B-6DD7-4026-A6F1-0DDCBB64AA48}" name="15/09/2025" dataDxfId="67" dataCellStyle="Moneda">
+    <tableColumn id="18" xr3:uid="{1E06C66B-6DD7-4026-A6F1-0DDCBB64AA48}" name="15/09/2025" dataDxfId="68" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],Z$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{3410EEF2-480D-4AC6-95EB-F9FF8EE99C1E}" name="30/09/2025" dataDxfId="66" dataCellStyle="Moneda">
+    <tableColumn id="19" xr3:uid="{3410EEF2-480D-4AC6-95EB-F9FF8EE99C1E}" name="30/09/2025" dataDxfId="67" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],AA$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{5028378B-3D4B-416D-A6F9-829B082B5131}" name="15/10/2025" dataDxfId="65" dataCellStyle="Moneda">
+    <tableColumn id="20" xr3:uid="{5028378B-3D4B-416D-A6F9-829B082B5131}" name="15/10/2025" dataDxfId="66" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],AB$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{02F0F725-8DC1-4420-BA92-E3E5048A9559}" name="31/10/2025" dataDxfId="64" dataCellStyle="Moneda">
+    <tableColumn id="21" xr3:uid="{02F0F725-8DC1-4420-BA92-E3E5048A9559}" name="31/10/2025" dataDxfId="65" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],AC$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{5535DA9E-3084-4A1B-B69F-F81BB03DBE2E}" name="15/11/2025" dataDxfId="63" dataCellStyle="Moneda">
+    <tableColumn id="22" xr3:uid="{5535DA9E-3084-4A1B-B69F-F81BB03DBE2E}" name="15/11/2025" dataDxfId="64" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],AD$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{4DF6AAA6-D36C-4B72-82F3-61A2957E4753}" name="30/11/2025" dataDxfId="62" dataCellStyle="Moneda">
+    <tableColumn id="23" xr3:uid="{4DF6AAA6-D36C-4B72-82F3-61A2957E4753}" name="30/11/2025" dataDxfId="63" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],AE$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{02C46CD0-A247-4B2C-8E69-1E711F0E47A7}" name="15/12/2025" dataDxfId="61" dataCellStyle="Moneda">
+    <tableColumn id="24" xr3:uid="{02C46CD0-A247-4B2C-8E69-1E711F0E47A7}" name="15/12/2025" dataDxfId="62" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],AF$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{B6B09F29-C0F5-4BA0-AD11-408EB7A82148}" name="31/12/2025" dataDxfId="60" dataCellStyle="Moneda">
+    <tableColumn id="25" xr3:uid="{B6B09F29-C0F5-4BA0-AD11-408EB7A82148}" name="31/12/2025" dataDxfId="61" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],AG$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{0D88BF43-570D-4A27-BE00-DA0950FB531D}" name="Total" dataDxfId="59" dataCellStyle="Moneda">
+    <tableColumn id="26" xr3:uid="{0D88BF43-570D-4A27-BE00-DA0950FB531D}" name="Total" dataDxfId="60" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUM(Ahorro_Partes[[#This Row],[15/01/2025]:[31/12/2025]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7925,90 +7888,84 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3826285C-DCD0-4BE5-A256-0B8C08A09B3C}" name="Tabla5" displayName="Tabla5" ref="B2:G16" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3826285C-DCD0-4BE5-A256-0B8C08A09B3C}" name="Tabla5" displayName="Tabla5" ref="B2:G16" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
   <autoFilter ref="B2:G16" xr:uid="{3826285C-DCD0-4BE5-A256-0B8C08A09B3C}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2A01E304-2A98-43BF-ADF3-53C55250C5B7}" name="Dia" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{B6053BB1-5253-49A0-934A-79910B99DF7A}" name="Partícipes Fondo" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{6F4E5EB8-72D7-48C4-BB20-537D838DE623}" name="Esta" dataDxfId="52">
-      <calculatedColumnFormula>INDEX(Consolidado[Esta],MATCH(Tabla5[[#This Row],[Partícipes Fondo]],Consolidado[Profesional],0))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{EC115191-ABB3-4D42-AB18-14F89E324651}" name="Valor" dataDxfId="51" dataCellStyle="Moneda"/>
-    <tableColumn id="4" xr3:uid="{C84D113D-0975-4C8C-8DD1-B95D63D430C2}" name="Costo" dataDxfId="50" dataCellStyle="Moneda">
-      <calculatedColumnFormula>SUMIF(Costo_Almuerzo[Dia],Tabla5[[#This Row],[Dia]],Costo_Almuerzo[Valor])/COUNTIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{544878E3-F69E-4F1D-A1E3-58940BEABECD}" name="Utilidad" dataDxfId="49" dataCellStyle="Moneda">
-      <calculatedColumnFormula>((SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Valor])-SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Costo]))/SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Esta]))*Tabla5[[#This Row],[Esta]]</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{2A01E304-2A98-43BF-ADF3-53C55250C5B7}" name="Dia" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{B6053BB1-5253-49A0-934A-79910B99DF7A}" name="Partícipes Fondo" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{6F4E5EB8-72D7-48C4-BB20-537D838DE623}" name="Esta" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{EC115191-ABB3-4D42-AB18-14F89E324651}" name="Valor" dataDxfId="52" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{C84D113D-0975-4C8C-8DD1-B95D63D430C2}" name="Costo" dataDxfId="51" dataCellStyle="Moneda"/>
+    <tableColumn id="5" xr3:uid="{544878E3-F69E-4F1D-A1E3-58940BEABECD}" name="Utilidad" dataDxfId="50" dataCellStyle="Moneda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{946BD0CB-9C97-4F44-B49E-CB9FA6BEBB13}" name="Costo_Almuerzo" displayName="Costo_Almuerzo" ref="I2:K5" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{946BD0CB-9C97-4F44-B49E-CB9FA6BEBB13}" name="Costo_Almuerzo" displayName="Costo_Almuerzo" ref="I2:K5" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="I2:K5" xr:uid="{946BD0CB-9C97-4F44-B49E-CB9FA6BEBB13}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DE7EE17D-53DF-48C8-9A8F-531C9E1AA880}" name="Dia" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{82E2C763-88DC-4A5A-97DB-513765D1F11D}" name="Concepto" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{35092E85-5F69-45EA-8749-1FE0177C8606}" name="Valor" dataDxfId="44" dataCellStyle="Moneda"/>
+    <tableColumn id="1" xr3:uid="{DE7EE17D-53DF-48C8-9A8F-531C9E1AA880}" name="Dia" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{82E2C763-88DC-4A5A-97DB-513765D1F11D}" name="Concepto" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{35092E85-5F69-45EA-8749-1FE0177C8606}" name="Valor" dataDxfId="45" dataCellStyle="Moneda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{76DB0300-DF1F-46A7-9F2E-1A2C3EB41B3C}" name="Tabla8" displayName="Tabla8" ref="B5:AA20" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{76DB0300-DF1F-46A7-9F2E-1A2C3EB41B3C}" name="Tabla8" displayName="Tabla8" ref="B5:AA20" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="B5:AA20" xr:uid="{76DB0300-DF1F-46A7-9F2E-1A2C3EB41B3C}"/>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{ECFE1EE4-0ADC-4295-8041-F438C180F4A9}" name="Profesional" dataDxfId="41"/>
-    <tableColumn id="26" xr3:uid="{B17341B3-C230-47D5-A3FF-AF6B76AB1D38}" name="Esta" dataDxfId="40">
+    <tableColumn id="1" xr3:uid="{ECFE1EE4-0ADC-4295-8041-F438C180F4A9}" name="Profesional" dataDxfId="42"/>
+    <tableColumn id="26" xr3:uid="{B17341B3-C230-47D5-A3FF-AF6B76AB1D38}" name="Esta" dataDxfId="41">
       <calculatedColumnFormula>INDEX(Consolidado[Esta],MATCH(Tabla8[[#This Row],[Profesional]],Consolidado[Profesional],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{CC66BACE-BB8E-4706-8CFD-9A3FEB2D3825}" name="15/01/2025" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{7D15F9B5-65CE-4BC6-BB9D-2A01B9CFA64F}" name="31/01/2025" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{FC52F8A1-F9A3-4427-B86B-2270556EF8FF}" name="15/02/2025" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{107994E6-FBC0-485B-A804-D77C7BECEF17}" name="28/02/2025" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{42765986-C189-4E63-AFCB-E44A67C533A2}" name="15/03/2025" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{62132BA8-C21A-4C21-BC57-047DE0B1E304}" name="31/03/2025" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{38C2F2D9-E1B9-410F-9B76-E6A7456C6D55}" name="15/04/2025" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{E164DBD9-78AF-4474-8E43-27AFEDC64FC2}" name="30/04/2025" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{722B45A4-8CDC-40BE-BBB6-D7DA4D017782}" name="15/05/2025" dataDxfId="31"/>
-    <tableColumn id="11" xr3:uid="{A44B6EAC-AA81-4212-8C8F-A484A8BD7357}" name="31/05/2025" dataDxfId="30"/>
-    <tableColumn id="12" xr3:uid="{ACE92DC1-76B9-48CF-B1C8-4A504E99E33E}" name="15/06/2025" dataDxfId="29"/>
-    <tableColumn id="13" xr3:uid="{D4AFBA5F-7540-46EA-9B38-D234B1B67509}" name="30/06/2025" dataDxfId="28"/>
-    <tableColumn id="14" xr3:uid="{1C3C7292-7339-4FA6-B670-490AD61319F6}" name="15/07/2025" dataDxfId="27"/>
-    <tableColumn id="15" xr3:uid="{B30792B8-F3D2-4027-A96E-8573AD3B5E78}" name="31/07/2025" dataDxfId="26"/>
-    <tableColumn id="16" xr3:uid="{4EBA7E1F-B6C2-4D04-8990-E92458BA4F77}" name="15/08/2025" dataDxfId="25"/>
-    <tableColumn id="17" xr3:uid="{598888D8-58DD-43B8-A8D5-43A7CCE45DB4}" name="31/08/2025" dataDxfId="24"/>
-    <tableColumn id="18" xr3:uid="{DF94C6D0-51A0-4593-94C9-F7B46A0D7F36}" name="15/09/2025" dataDxfId="23"/>
-    <tableColumn id="19" xr3:uid="{5C674B1B-D10A-4E10-97C5-6FA58A92E907}" name="30/09/2025" dataDxfId="22"/>
-    <tableColumn id="20" xr3:uid="{D6C6562B-2826-469C-BF09-14C2F767AEBE}" name="15/10/2025" dataDxfId="21"/>
-    <tableColumn id="21" xr3:uid="{C2CCD68F-5C79-438A-95DE-EB70C7068742}" name="31/10/2025" dataDxfId="20"/>
-    <tableColumn id="22" xr3:uid="{F8D979D4-5820-40D8-882B-49EC31099FDA}" name="15/11/2025" dataDxfId="19"/>
-    <tableColumn id="23" xr3:uid="{66959B67-7357-4598-A129-5BEA1B3ACFF0}" name="30/11/2025" dataDxfId="18"/>
-    <tableColumn id="24" xr3:uid="{1EFC3A18-36E9-4A08-B807-B5E8AFAC49B9}" name="15/12/2025" dataDxfId="17"/>
-    <tableColumn id="25" xr3:uid="{9B78CDA7-7238-4C34-9495-ADA29A8DBCAB}" name="31/12/2025" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{CC66BACE-BB8E-4706-8CFD-9A3FEB2D3825}" name="15/01/2025" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{7D15F9B5-65CE-4BC6-BB9D-2A01B9CFA64F}" name="31/01/2025" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{FC52F8A1-F9A3-4427-B86B-2270556EF8FF}" name="15/02/2025" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{107994E6-FBC0-485B-A804-D77C7BECEF17}" name="28/02/2025" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{42765986-C189-4E63-AFCB-E44A67C533A2}" name="15/03/2025" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{62132BA8-C21A-4C21-BC57-047DE0B1E304}" name="31/03/2025" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{38C2F2D9-E1B9-410F-9B76-E6A7456C6D55}" name="15/04/2025" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{E164DBD9-78AF-4474-8E43-27AFEDC64FC2}" name="30/04/2025" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{722B45A4-8CDC-40BE-BBB6-D7DA4D017782}" name="15/05/2025" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{A44B6EAC-AA81-4212-8C8F-A484A8BD7357}" name="31/05/2025" dataDxfId="31"/>
+    <tableColumn id="12" xr3:uid="{ACE92DC1-76B9-48CF-B1C8-4A504E99E33E}" name="15/06/2025" dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{D4AFBA5F-7540-46EA-9B38-D234B1B67509}" name="30/06/2025" dataDxfId="29"/>
+    <tableColumn id="14" xr3:uid="{1C3C7292-7339-4FA6-B670-490AD61319F6}" name="15/07/2025" dataDxfId="28"/>
+    <tableColumn id="15" xr3:uid="{B30792B8-F3D2-4027-A96E-8573AD3B5E78}" name="31/07/2025" dataDxfId="27"/>
+    <tableColumn id="16" xr3:uid="{4EBA7E1F-B6C2-4D04-8990-E92458BA4F77}" name="15/08/2025" dataDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{598888D8-58DD-43B8-A8D5-43A7CCE45DB4}" name="31/08/2025" dataDxfId="25"/>
+    <tableColumn id="18" xr3:uid="{DF94C6D0-51A0-4593-94C9-F7B46A0D7F36}" name="15/09/2025" dataDxfId="24"/>
+    <tableColumn id="19" xr3:uid="{5C674B1B-D10A-4E10-97C5-6FA58A92E907}" name="30/09/2025" dataDxfId="23"/>
+    <tableColumn id="20" xr3:uid="{D6C6562B-2826-469C-BF09-14C2F767AEBE}" name="15/10/2025" dataDxfId="22"/>
+    <tableColumn id="21" xr3:uid="{C2CCD68F-5C79-438A-95DE-EB70C7068742}" name="31/10/2025" dataDxfId="21"/>
+    <tableColumn id="22" xr3:uid="{F8D979D4-5820-40D8-882B-49EC31099FDA}" name="15/11/2025" dataDxfId="20"/>
+    <tableColumn id="23" xr3:uid="{66959B67-7357-4598-A129-5BEA1B3ACFF0}" name="30/11/2025" dataDxfId="19"/>
+    <tableColumn id="24" xr3:uid="{1EFC3A18-36E9-4A08-B807-B5E8AFAC49B9}" name="15/12/2025" dataDxfId="18"/>
+    <tableColumn id="25" xr3:uid="{9B78CDA7-7238-4C34-9495-ADA29A8DBCAB}" name="31/12/2025" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E755208-2AFF-4080-98E1-B621BA26F465}" name="Rellena" displayName="Rellena" ref="G9:K18" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E755208-2AFF-4080-98E1-B621BA26F465}" name="Rellena" displayName="Rellena" ref="G9:K18" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="G9:K18" xr:uid="{7E755208-2AFF-4080-98E1-B621BA26F465}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{AC08E13C-36E6-4188-87B9-F04139C8E3DF}" name="Partícipes Fondo" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{85C733CE-D872-409B-965F-2F43212846A7}" name="% Consumo" dataDxfId="9" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{AC08E13C-36E6-4188-87B9-F04139C8E3DF}" name="Partícipes Fondo" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{85C733CE-D872-409B-965F-2F43212846A7}" name="% Consumo" dataDxfId="10" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>+I10/SUM($I$10:$I$18)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{88ACB9EB-56E4-471F-8430-C5E746094E68}" name="Descuento" dataDxfId="8" dataCellStyle="Moneda">
+    <tableColumn id="3" xr3:uid="{88ACB9EB-56E4-471F-8430-C5E746094E68}" name="Descuento" dataDxfId="9" dataCellStyle="Moneda">
       <calculatedColumnFormula>+SUMIF($B$10:$B$28,G10,$E$10:$E$28)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{52945D9E-04EF-4335-BC73-B3114FD99917}" name="Esta" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{52945D9E-04EF-4335-BC73-B3114FD99917}" name="Esta" dataDxfId="8">
       <calculatedColumnFormula>INDEX(Consolidado[Esta],MATCH(Rellena[[#This Row],[Partícipes Fondo]],Consolidado[Profesional],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A4373799-D822-4CCA-8E1E-8FFC697AEA0F}" name="Ganancia" dataDxfId="6" dataCellStyle="Moneda">
+    <tableColumn id="6" xr3:uid="{A4373799-D822-4CCA-8E1E-8FFC697AEA0F}" name="Ganancia" dataDxfId="7" dataCellStyle="Moneda">
       <calculatedColumnFormula>($K$7/SUM(Rellena[Esta]))*Rellena[[#This Row],[Esta]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8017,13 +7974,13 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3E2A4EC0-6437-4733-976B-139B8A933CAE}" name="Tabla2" displayName="Tabla2" ref="B9:E28" totalsRowShown="0" headerRowDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3E2A4EC0-6437-4733-976B-139B8A933CAE}" name="Tabla2" displayName="Tabla2" ref="B9:E28" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="B9:E28" xr:uid="{3E2A4EC0-6437-4733-976B-139B8A933CAE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B1161ED0-8036-47C9-9EA4-C6ACFB5189F7}" name="Partícipes Fondo" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{488ECBAD-2F75-4668-9BA5-7F072F0D9923}" name="#" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{9245135C-52DD-4C66-B461-1C66A77D7822}" name="Consumo" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{8A44F884-3C5B-4258-8A65-4B2B7E4F28BD}" name="Precio" dataDxfId="0" dataCellStyle="Moneda">
+    <tableColumn id="1" xr3:uid="{B1161ED0-8036-47C9-9EA4-C6ACFB5189F7}" name="Partícipes Fondo" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{488ECBAD-2F75-4668-9BA5-7F072F0D9923}" name="#" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{9245135C-52DD-4C66-B461-1C66A77D7822}" name="Consumo" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{8A44F884-3C5B-4258-8A65-4B2B7E4F28BD}" name="Precio" dataDxfId="1" dataCellStyle="Moneda">
       <calculatedColumnFormula>MROUND(IF(D10=$B$5,$E$5*C10,IF(D10=$B$6,C10*$E$6,IF(D10=$B$7,C10*$E$7,"Error"))),100)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8330,7 +8287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876341DC-4D92-49CA-BA4E-54274A2F570C}">
   <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8348,34 +8305,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
+      <c r="B2" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
+      <c r="B3" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
     </row>
     <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="35" t="s">
@@ -8385,7 +8342,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>34</v>
@@ -8394,22 +8351,22 @@
         <v>35</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J5" s="35" t="s">
         <v>31</v>
       </c>
       <c r="K5" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="35" t="s">
         <v>43</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -8417,10 +8374,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="24">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24">
         <v>1</v>
-      </c>
-      <c r="D6" s="24">
-        <v>0</v>
       </c>
       <c r="E6" s="34">
         <f>+SUMIF(Ahorro_Total[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Ahorro_Total[Valor])</f>
@@ -8428,7 +8385,7 @@
       </c>
       <c r="F6" s="34">
         <f>+SUMIF(Tabla5[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Tabla5[Utilidad])</f>
-        <v>8771.4285714285688</v>
+        <v>0</v>
       </c>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
@@ -8438,7 +8395,7 @@
       </c>
       <c r="J6" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)</f>
-        <v>8750</v>
+        <v>0</v>
       </c>
       <c r="K6" s="48">
         <f>IFERROR((Consolidado[[#This Row],[Total]]-E6)/Consolidado[[#This Row],[1. Ahorro]],0)</f>
@@ -8446,7 +8403,7 @@
       </c>
       <c r="L6" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)*IF(Consolidado[[#This Row],[Pagado]]=1,0,1)</f>
-        <v>8750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -8461,11 +8418,11 @@
       </c>
       <c r="E7" s="34">
         <f>+SUMIF(Ahorro_Total[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Ahorro_Total[Valor])</f>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="F7" s="34">
         <f>+SUMIF(Tabla5[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Tabla5[Utilidad])</f>
-        <v>8771.4285714285688</v>
+        <v>0</v>
       </c>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
@@ -8475,15 +8432,15 @@
       </c>
       <c r="J7" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)</f>
-        <v>73350</v>
+        <v>114550</v>
       </c>
       <c r="K7" s="48">
         <f>IFERROR((Consolidado[[#This Row],[Total]]-E7)/Consolidado[[#This Row],[1. Ahorro]],0)</f>
-        <v>0.46700000000000003</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="L7" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)*IF(Consolidado[[#This Row],[Pagado]]=1,0,1)</f>
-        <v>73350</v>
+        <v>114550</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -8498,11 +8455,11 @@
       </c>
       <c r="E8" s="34">
         <f>+SUMIF(Ahorro_Total[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Ahorro_Total[Valor])</f>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="F8" s="34">
         <f>+SUMIF(Tabla5[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Tabla5[Utilidad])</f>
-        <v>8771.4285714285688</v>
+        <v>0</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
@@ -8512,15 +8469,15 @@
       </c>
       <c r="J8" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)</f>
-        <v>73350</v>
+        <v>114550</v>
       </c>
       <c r="K8" s="48">
         <f>IFERROR((Consolidado[[#This Row],[Total]]-E8)/Consolidado[[#This Row],[1. Ahorro]],0)</f>
-        <v>0.46700000000000003</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="L8" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)*IF(Consolidado[[#This Row],[Pagado]]=1,0,1)</f>
-        <v>73350</v>
+        <v>114550</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -8535,11 +8492,11 @@
       </c>
       <c r="E9" s="34">
         <f>+SUMIF(Ahorro_Total[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Ahorro_Total[Valor])</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="34">
         <f>+SUMIF(Tabla5[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Tabla5[Utilidad])</f>
-        <v>8771.4285714285688</v>
+        <v>0</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
@@ -8549,15 +8506,15 @@
       </c>
       <c r="J9" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)</f>
-        <v>58750</v>
+        <v>0</v>
       </c>
       <c r="K9" s="48">
         <f>IFERROR((Consolidado[[#This Row],[Total]]-E9)/Consolidado[[#This Row],[1. Ahorro]],0)</f>
-        <v>0.17499999999999999</v>
+        <v>0</v>
       </c>
       <c r="L9" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)*IF(Consolidado[[#This Row],[Pagado]]=1,0,1)</f>
-        <v>58750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -8572,11 +8529,11 @@
       </c>
       <c r="E10" s="34">
         <f>+SUMIF(Ahorro_Total[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Ahorro_Total[Valor])</f>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="F10" s="34">
         <f>+SUMIF(Tabla5[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Tabla5[Utilidad])</f>
-        <v>26314.285714285706</v>
+        <v>0</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
@@ -8586,15 +8543,15 @@
       </c>
       <c r="J10" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)</f>
-        <v>90850</v>
+        <v>114550</v>
       </c>
       <c r="K10" s="48">
         <f>IFERROR((Consolidado[[#This Row],[Total]]-E10)/Consolidado[[#This Row],[1. Ahorro]],0)</f>
-        <v>0.81699999999999995</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="L10" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)*IF(Consolidado[[#This Row],[Pagado]]=1,0,1)</f>
-        <v>90850</v>
+        <v>114550</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -8609,11 +8566,11 @@
       </c>
       <c r="E11" s="34">
         <f>+SUMIF(Ahorro_Total[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Ahorro_Total[Valor])</f>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="F11" s="34">
         <f>+SUMIF(Tabla5[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Tabla5[Utilidad])</f>
-        <v>8771.4285714285688</v>
+        <v>0</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
@@ -8623,15 +8580,15 @@
       </c>
       <c r="J11" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)</f>
-        <v>73350</v>
+        <v>114550</v>
       </c>
       <c r="K11" s="48">
         <f>IFERROR((Consolidado[[#This Row],[Total]]-E11)/Consolidado[[#This Row],[1. Ahorro]],0)</f>
-        <v>0.46700000000000003</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="L11" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)*IF(Consolidado[[#This Row],[Pagado]]=1,0,1)</f>
-        <v>73350</v>
+        <v>114550</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -8646,11 +8603,11 @@
       </c>
       <c r="E12" s="34">
         <f>+SUMIF(Ahorro_Total[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Ahorro_Total[Valor])</f>
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="F12" s="34">
         <f>+SUMIF(Tabla5[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Tabla5[Utilidad])</f>
-        <v>8771.4285714285688</v>
+        <v>0</v>
       </c>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
@@ -8660,15 +8617,15 @@
       </c>
       <c r="J12" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)</f>
-        <v>123350</v>
+        <v>214550</v>
       </c>
       <c r="K12" s="48">
         <f>IFERROR((Consolidado[[#This Row],[Total]]-E12)/Consolidado[[#This Row],[1. Ahorro]],0)</f>
-        <v>0.23350000000000001</v>
+        <v>7.2749999999999995E-2</v>
       </c>
       <c r="L12" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)*IF(Consolidado[[#This Row],[Pagado]]=1,0,1)</f>
-        <v>123350</v>
+        <v>214550</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -8683,11 +8640,11 @@
       </c>
       <c r="E13" s="34">
         <f>+SUMIF(Ahorro_Total[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Ahorro_Total[Valor])</f>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="F13" s="34">
         <f>+SUMIF(Tabla5[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Tabla5[Utilidad])</f>
-        <v>8771.4285714285688</v>
+        <v>0</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
@@ -8697,15 +8654,15 @@
       </c>
       <c r="J13" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)</f>
-        <v>73350</v>
+        <v>114550</v>
       </c>
       <c r="K13" s="48">
         <f>IFERROR((Consolidado[[#This Row],[Total]]-E13)/Consolidado[[#This Row],[1. Ahorro]],0)</f>
-        <v>0.46700000000000003</v>
+        <v>0.14549999999999999</v>
       </c>
       <c r="L13" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)*IF(Consolidado[[#This Row],[Pagado]]=1,0,1)</f>
-        <v>73350</v>
+        <v>114550</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -8724,7 +8681,7 @@
       </c>
       <c r="F14" s="34">
         <f>+SUMIF(Tabla5[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Tabla5[Utilidad])</f>
-        <v>26314.285714285706</v>
+        <v>0</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -8734,7 +8691,7 @@
       </c>
       <c r="J14" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)</f>
-        <v>40850</v>
+        <v>14550</v>
       </c>
       <c r="K14" s="48">
         <f>IFERROR((Consolidado[[#This Row],[Total]]-E14)/Consolidado[[#This Row],[1. Ahorro]],0)</f>
@@ -8747,10 +8704,10 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="24">
         <v>0</v>
@@ -8761,7 +8718,7 @@
       </c>
       <c r="F15" s="34">
         <f>+SUMIF(Tabla5[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Tabla5[Utilidad])</f>
-        <v>8771.4285714285688</v>
+        <v>0</v>
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
@@ -8771,7 +8728,7 @@
       </c>
       <c r="J15" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)</f>
-        <v>8750</v>
+        <v>0</v>
       </c>
       <c r="K15" s="48">
         <f>IFERROR((Consolidado[[#This Row],[Total]]-E15)/Consolidado[[#This Row],[1. Ahorro]],0)</f>
@@ -8779,7 +8736,7 @@
       </c>
       <c r="L15" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)*IF(Consolidado[[#This Row],[Pagado]]=1,0,1)</f>
-        <v>8750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -8868,7 +8825,7 @@
       </c>
       <c r="E18" s="34">
         <f>+SUMIF(Ahorro_Total[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Ahorro_Total[Valor])</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F18" s="34">
         <f>+SUMIF(Tabla5[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Tabla5[Utilidad])</f>
@@ -8882,7 +8839,7 @@
       </c>
       <c r="J18" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="K18" s="48">
         <f>IFERROR((Consolidado[[#This Row],[Total]]-E18)/Consolidado[[#This Row],[1. Ahorro]],0)</f>
@@ -8905,7 +8862,7 @@
       </c>
       <c r="E19" s="34">
         <f>+SUMIF(Ahorro_Total[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Ahorro_Total[Valor])</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F19" s="34">
         <f>+SUMIF(Tabla5[Partícipes Fondo],Consolidado[[#This Row],[Profesional]],Tabla5[Utilidad])</f>
@@ -8919,7 +8876,7 @@
       </c>
       <c r="J19" s="34">
         <f>+MROUND(SUM(Consolidado[[#This Row],[1. Ahorro]:[5. Rellena]]),50)</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="K19" s="48">
         <f>IFERROR((Consolidado[[#This Row],[Total]]-E19)/Consolidado[[#This Row],[1. Ahorro]],0)</f>
@@ -8976,12 +8933,12 @@
       <c r="I21" s="49"/>
       <c r="J21" s="49">
         <f>SUBTOTAL(109,Consolidado[Total])</f>
-        <v>624700</v>
+        <v>1001850</v>
       </c>
       <c r="K21" s="47"/>
       <c r="L21" s="50">
         <f>SUBTOTAL(109,Consolidado[Saldo])</f>
-        <v>583850</v>
+        <v>787300</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -9010,10 +8967,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12151C96-46E0-451C-8527-38ED57F83F63}">
-  <dimension ref="B1:AH32"/>
+  <dimension ref="B1:AH20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9052,85 +9009,85 @@
         <v>36</v>
       </c>
       <c r="J2" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="N2" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="O2" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="P2" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="55" t="s">
+      <c r="Q2" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="55" t="s">
+      <c r="R2" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="55" t="s">
+      <c r="S2" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="55" t="s">
+      <c r="T2" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="55" t="s">
+      <c r="U2" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="55" t="s">
+      <c r="V2" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="T2" s="55" t="s">
+      <c r="W2" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="U2" s="55" t="s">
+      <c r="X2" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="V2" s="55" t="s">
+      <c r="Y2" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="55" t="s">
+      <c r="Z2" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="X2" s="55" t="s">
+      <c r="AA2" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="Y2" s="55" t="s">
+      <c r="AB2" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="Z2" s="55" t="s">
+      <c r="AC2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="AA2" s="55" t="s">
+      <c r="AD2" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AB2" s="55" t="s">
+      <c r="AE2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="AC2" s="55" t="s">
+      <c r="AF2" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="AD2" s="55" t="s">
+      <c r="AG2" s="56" t="s">
         <v>67</v>
-      </c>
-      <c r="AE2" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF2" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG2" s="56" t="s">
-        <v>70</v>
       </c>
       <c r="AH2" s="56"/>
     </row>
     <row r="3" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="38">
-        <v>45762</v>
+        <v>45672</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D3" s="40">
         <v>50000</v>
@@ -9140,7 +9097,7 @@
     </row>
     <row r="4" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="38">
-        <v>45762</v>
+        <v>45672</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>3</v>
@@ -9154,76 +9111,76 @@
         <v>29</v>
       </c>
       <c r="J4" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="53" t="s">
+      <c r="N4" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="53" t="s">
+      <c r="O4" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="53" t="s">
+      <c r="P4" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="53" t="s">
+      <c r="Q4" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="53" t="s">
+      <c r="R4" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="P4" s="53" t="s">
+      <c r="S4" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="Q4" s="53" t="s">
+      <c r="T4" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="53" t="s">
+      <c r="U4" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="S4" s="53" t="s">
+      <c r="V4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="T4" s="53" t="s">
+      <c r="W4" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="U4" s="53" t="s">
+      <c r="X4" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="V4" s="53" t="s">
+      <c r="Y4" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="W4" s="53" t="s">
+      <c r="Z4" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="X4" s="53" t="s">
+      <c r="AA4" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="Y4" s="53" t="s">
+      <c r="AB4" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="Z4" s="53" t="s">
+      <c r="AC4" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="AA4" s="53" t="s">
+      <c r="AD4" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="53" t="s">
+      <c r="AE4" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="AC4" s="53" t="s">
+      <c r="AF4" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="AD4" s="53" t="s">
+      <c r="AG4" s="53" t="s">
         <v>67</v>
-      </c>
-      <c r="AE4" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF4" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG4" s="53" t="s">
-        <v>70</v>
       </c>
       <c r="AH4" s="53" t="s">
         <v>31</v>
@@ -9231,13 +9188,13 @@
     </row>
     <row r="5" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38">
-        <v>45762</v>
+        <v>45672</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" s="40">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="61"/>
@@ -9347,10 +9304,10 @@
     </row>
     <row r="6" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="38">
-        <v>45762</v>
+        <v>45672</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" s="40">
         <v>50000</v>
@@ -9362,11 +9319,11 @@
       </c>
       <c r="J6" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],J$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="K6" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],K$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L6" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],L$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -9386,7 +9343,7 @@
       </c>
       <c r="P6" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],P$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],Q$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -9458,18 +9415,18 @@
       </c>
       <c r="AH6" s="40">
         <f>+SUM(Ahorro_Partes[[#This Row],[15/01/2025]:[31/12/2025]])</f>
-        <v>50000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="7" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="38">
-        <v>45762</v>
+        <v>45672</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D7" s="40">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="F7" s="60"/>
       <c r="G7" s="61"/>
@@ -9478,11 +9435,11 @@
       </c>
       <c r="J7" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],J$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="K7" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],K$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],L$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -9502,7 +9459,7 @@
       </c>
       <c r="P7" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],P$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],Q$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -9574,15 +9531,15 @@
       </c>
       <c r="AH7" s="40">
         <f>+SUM(Ahorro_Partes[[#This Row],[15/01/2025]:[31/12/2025]])</f>
-        <v>50000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="8" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="38">
-        <v>45762</v>
+        <v>45672</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="40">
         <v>50000</v>
@@ -9618,7 +9575,7 @@
       </c>
       <c r="P8" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],P$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],Q$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -9690,15 +9647,15 @@
       </c>
       <c r="AH8" s="40">
         <f>+SUM(Ahorro_Partes[[#This Row],[15/01/2025]:[31/12/2025]])</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="38">
-        <v>45762</v>
+        <v>45672</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="40">
         <v>50000</v>
@@ -9710,11 +9667,11 @@
       </c>
       <c r="J9" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],J$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="K9" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],K$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L9" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],L$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -9734,7 +9691,7 @@
       </c>
       <c r="P9" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],P$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],Q$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -9806,15 +9763,15 @@
       </c>
       <c r="AH9" s="40">
         <f>+SUM(Ahorro_Partes[[#This Row],[15/01/2025]:[31/12/2025]])</f>
-        <v>50000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="10" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="38">
-        <v>45762</v>
+        <v>45672</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="D10" s="40">
         <v>50000</v>
@@ -9826,11 +9783,11 @@
       </c>
       <c r="J10" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],J$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="K10" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],K$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L10" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],L$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -9850,7 +9807,7 @@
       </c>
       <c r="P10" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],P$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],Q$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -9922,12 +9879,19 @@
       </c>
       <c r="AH10" s="40">
         <f>+SUM(Ahorro_Partes[[#This Row],[15/01/2025]:[31/12/2025]])</f>
-        <v>50000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="11" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="38"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="38">
+        <v>45688</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="40">
+        <v>50000</v>
+      </c>
       <c r="F11" s="60"/>
       <c r="G11" s="61"/>
       <c r="I11" s="25" t="s">
@@ -9935,11 +9899,11 @@
       </c>
       <c r="J11" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],J$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="K11" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],K$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="L11" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],L$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -9959,7 +9923,7 @@
       </c>
       <c r="P11" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],P$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],Q$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -10031,12 +9995,19 @@
       </c>
       <c r="AH11" s="40">
         <f>+SUM(Ahorro_Partes[[#This Row],[15/01/2025]:[31/12/2025]])</f>
-        <v>100000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="12" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="38"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="38">
+        <v>45688</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="40">
+        <v>50000</v>
+      </c>
       <c r="F12" s="60"/>
       <c r="G12" s="61"/>
       <c r="I12" s="25" t="s">
@@ -10044,11 +10015,11 @@
       </c>
       <c r="J12" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],J$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="K12" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],K$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L12" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],L$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -10068,7 +10039,7 @@
       </c>
       <c r="P12" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],P$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],Q$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -10140,12 +10111,19 @@
       </c>
       <c r="AH12" s="40">
         <f>+SUM(Ahorro_Partes[[#This Row],[15/01/2025]:[31/12/2025]])</f>
-        <v>50000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="13" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="38"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="38">
+        <v>45688</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="40">
+        <v>100000</v>
+      </c>
       <c r="F13" s="60"/>
       <c r="G13" s="61"/>
       <c r="I13" s="26" t="s">
@@ -10253,12 +10231,19 @@
       </c>
     </row>
     <row r="14" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="38"/>
-      <c r="D14" s="40"/>
+      <c r="B14" s="38">
+        <v>45688</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="40">
+        <v>50000</v>
+      </c>
       <c r="F14" s="60"/>
       <c r="G14" s="61"/>
       <c r="I14" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],J$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -10362,8 +10347,15 @@
       </c>
     </row>
     <row r="15" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="38"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="38">
+        <v>45688</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="40">
+        <v>50000</v>
+      </c>
       <c r="F15" s="60"/>
       <c r="G15" s="61"/>
       <c r="I15" s="25" t="s">
@@ -10471,8 +10463,15 @@
       </c>
     </row>
     <row r="16" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="38"/>
-      <c r="D16" s="40"/>
+      <c r="B16" s="38">
+        <v>45688</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="40">
+        <v>50000</v>
+      </c>
       <c r="F16" s="60"/>
       <c r="G16" s="61"/>
       <c r="I16" s="25" t="s">
@@ -10580,8 +10579,15 @@
       </c>
     </row>
     <row r="17" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="38"/>
-      <c r="D17" s="40"/>
+      <c r="B17" s="38">
+        <v>45688</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="40">
+        <v>50000</v>
+      </c>
       <c r="F17" s="60"/>
       <c r="G17" s="61"/>
       <c r="I17" s="25" t="s">
@@ -10589,11 +10595,11 @@
       </c>
       <c r="J17" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],J$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="K17" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],K$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L17" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],L$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -10685,12 +10691,19 @@
       </c>
       <c r="AH17" s="40">
         <f>+SUM(Ahorro_Partes[[#This Row],[15/01/2025]:[31/12/2025]])</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="18" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="38"/>
-      <c r="D18" s="40"/>
+      <c r="B18" s="38">
+        <v>45688</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="40">
+        <v>50000</v>
+      </c>
       <c r="F18" s="62"/>
       <c r="G18" s="63"/>
       <c r="I18" s="25" t="s">
@@ -10698,11 +10711,11 @@
       </c>
       <c r="J18" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],J$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="K18" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],K$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L18" s="40">
         <f>+SUMIFS(Ahorro_Total[Valor],Ahorro_Total[Quincena],L$2,Ahorro_Total[Partícipes Fondo],Ahorro_Partes[[#This Row],[Profesional]])</f>
@@ -10794,7 +10807,7 @@
       </c>
       <c r="AH18" s="40">
         <f>+SUM(Ahorro_Partes[[#This Row],[15/01/2025]:[31/12/2025]])</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="19" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10803,63 +10816,13 @@
       <c r="J19" s="37"/>
     </row>
     <row r="20" spans="2:34" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
-      <c r="D20" s="40"/>
       <c r="F20" s="64" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G20" s="65">
         <f>+SUM(Ahorro_Partes[Total])</f>
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="38"/>
-      <c r="D21" s="40"/>
-    </row>
-    <row r="22" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="38"/>
-      <c r="D22" s="40"/>
-    </row>
-    <row r="23" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="38"/>
-      <c r="D23" s="40"/>
-    </row>
-    <row r="24" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="38"/>
-      <c r="D24" s="40"/>
-    </row>
-    <row r="25" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="38"/>
-      <c r="D25" s="40"/>
-    </row>
-    <row r="26" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="38"/>
-      <c r="D26" s="40"/>
-    </row>
-    <row r="27" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="38"/>
-      <c r="D27" s="40"/>
-    </row>
-    <row r="28" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="38"/>
-      <c r="D28" s="40"/>
-    </row>
-    <row r="29" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="38"/>
-      <c r="D29" s="40"/>
-    </row>
-    <row r="30" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="38"/>
-      <c r="D30" s="40"/>
-    </row>
-    <row r="31" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="38"/>
-      <c r="D31" s="40"/>
-    </row>
-    <row r="32" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="38"/>
-      <c r="D32" s="40"/>
+        <v>900000</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J5:AG18">
@@ -10886,7 +10849,7 @@
   <dimension ref="B1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="I3" sqref="I3:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -10928,370 +10891,128 @@
         <v>33</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="I2" s="41" t="s">
         <v>32</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="41" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="42">
-        <v>45738</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="24">
-        <f>INDEX(Consolidado[Esta],MATCH(Tabla5[[#This Row],[Partícipes Fondo]],Consolidado[Profesional],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="44">
-        <v>17000</v>
-      </c>
-      <c r="F3" s="44">
-        <f>SUMIF(Costo_Almuerzo[Dia],Tabla5[[#This Row],[Dia]],Costo_Almuerzo[Valor])/COUNTIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]])</f>
-        <v>8228.5714285714294</v>
-      </c>
-      <c r="G3" s="44">
-        <f>((SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Valor])-SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Costo]))/SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Esta]))*Tabla5[[#This Row],[Esta]]</f>
-        <v>8771.4285714285688</v>
-      </c>
-      <c r="I3" s="42">
-        <v>45738</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="44">
-        <v>104500</v>
-      </c>
+      <c r="B3" s="42"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="44"/>
       <c r="M3" s="8"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="42">
-        <v>45738</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="24">
-        <f>INDEX(Consolidado[Esta],MATCH(Tabla5[[#This Row],[Partícipes Fondo]],Consolidado[Profesional],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="44">
-        <v>17000</v>
-      </c>
-      <c r="F4" s="44">
-        <f>SUMIF(Costo_Almuerzo[Dia],Tabla5[[#This Row],[Dia]],Costo_Almuerzo[Valor])/COUNTIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]])</f>
-        <v>8228.5714285714294</v>
-      </c>
-      <c r="G4" s="44">
-        <f>((SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Valor])-SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Costo]))/SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Esta]))*Tabla5[[#This Row],[Esta]]</f>
-        <v>8771.4285714285688</v>
-      </c>
-      <c r="I4" s="42">
-        <v>45738</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="51">
-        <v>0</v>
-      </c>
+      <c r="B4" s="42"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="42">
-        <v>45738</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="24">
-        <f>INDEX(Consolidado[Esta],MATCH(Tabla5[[#This Row],[Partícipes Fondo]],Consolidado[Profesional],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="44">
-        <v>17000</v>
-      </c>
-      <c r="F5" s="44">
-        <f>SUMIF(Costo_Almuerzo[Dia],Tabla5[[#This Row],[Dia]],Costo_Almuerzo[Valor])/COUNTIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]])</f>
-        <v>8228.5714285714294</v>
-      </c>
-      <c r="G5" s="44">
-        <f>((SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Valor])-SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Costo]))/SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Esta]))*Tabla5[[#This Row],[Esta]]</f>
-        <v>8771.4285714285688</v>
-      </c>
-      <c r="I5" s="42">
-        <v>45738</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="44">
-        <v>10700</v>
-      </c>
+      <c r="B5" s="42"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="42">
-        <v>45738</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="24">
-        <f>INDEX(Consolidado[Esta],MATCH(Tabla5[[#This Row],[Partícipes Fondo]],Consolidado[Profesional],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="44">
-        <v>17000</v>
-      </c>
-      <c r="F6" s="44">
-        <f>SUMIF(Costo_Almuerzo[Dia],Tabla5[[#This Row],[Dia]],Costo_Almuerzo[Valor])/COUNTIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]])</f>
-        <v>8228.5714285714294</v>
-      </c>
-      <c r="G6" s="44">
-        <f>((SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Valor])-SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Costo]))/SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Esta]))*Tabla5[[#This Row],[Esta]]</f>
-        <v>8771.4285714285688</v>
-      </c>
+      <c r="B6" s="42"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="42">
-        <v>45738</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="24">
-        <f>INDEX(Consolidado[Esta],MATCH(Tabla5[[#This Row],[Partícipes Fondo]],Consolidado[Profesional],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="44">
-        <v>17000</v>
-      </c>
-      <c r="F7" s="44">
-        <f>SUMIF(Costo_Almuerzo[Dia],Tabla5[[#This Row],[Dia]],Costo_Almuerzo[Valor])/COUNTIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]])</f>
-        <v>8228.5714285714294</v>
-      </c>
-      <c r="G7" s="44">
-        <f>((SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Valor])-SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Costo]))/SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Esta]))*Tabla5[[#This Row],[Esta]]</f>
-        <v>8771.4285714285688</v>
-      </c>
+      <c r="B7" s="42"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="42">
-        <v>45738</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="24">
-        <f>INDEX(Consolidado[Esta],MATCH(Tabla5[[#This Row],[Partícipes Fondo]],Consolidado[Profesional],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="44">
-        <v>17000</v>
-      </c>
-      <c r="F8" s="44">
-        <f>SUMIF(Costo_Almuerzo[Dia],Tabla5[[#This Row],[Dia]],Costo_Almuerzo[Valor])/COUNTIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]])</f>
-        <v>8228.5714285714294</v>
-      </c>
-      <c r="G8" s="44">
-        <f>((SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Valor])-SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Costo]))/SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Esta]))*Tabla5[[#This Row],[Esta]]</f>
-        <v>8771.4285714285688</v>
-      </c>
+      <c r="B8" s="42"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="42">
-        <v>45738</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="24">
-        <f>INDEX(Consolidado[Esta],MATCH(Tabla5[[#This Row],[Partícipes Fondo]],Consolidado[Profesional],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="44">
-        <v>17000</v>
-      </c>
-      <c r="F9" s="44">
-        <f>SUMIF(Costo_Almuerzo[Dia],Tabla5[[#This Row],[Dia]],Costo_Almuerzo[Valor])/COUNTIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]])</f>
-        <v>8228.5714285714294</v>
-      </c>
-      <c r="G9" s="44">
-        <f>((SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Valor])-SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Costo]))/SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Esta]))*Tabla5[[#This Row],[Esta]]</f>
-        <v>8771.4285714285688</v>
-      </c>
+      <c r="B9" s="42"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="42">
-        <v>45738</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="24">
-        <f>INDEX(Consolidado[Esta],MATCH(Tabla5[[#This Row],[Partícipes Fondo]],Consolidado[Profesional],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="44">
-        <v>17000</v>
-      </c>
-      <c r="F10" s="44">
-        <f>SUMIF(Costo_Almuerzo[Dia],Tabla5[[#This Row],[Dia]],Costo_Almuerzo[Valor])/COUNTIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]])</f>
-        <v>8228.5714285714294</v>
-      </c>
-      <c r="G10" s="44">
-        <f>((SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Valor])-SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Costo]))/SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Esta]))*Tabla5[[#This Row],[Esta]]</f>
-        <v>8771.4285714285688</v>
-      </c>
+      <c r="B10" s="42"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="42">
-        <v>45738</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="24">
-        <f>INDEX(Consolidado[Esta],MATCH(Tabla5[[#This Row],[Partícipes Fondo]],Consolidado[Profesional],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="44">
-        <v>17000</v>
-      </c>
-      <c r="F11" s="44">
-        <f>SUMIF(Costo_Almuerzo[Dia],Tabla5[[#This Row],[Dia]],Costo_Almuerzo[Valor])/COUNTIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]])</f>
-        <v>8228.5714285714294</v>
-      </c>
-      <c r="G11" s="44">
-        <f>((SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Valor])-SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Costo]))/SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Esta]))*Tabla5[[#This Row],[Esta]]</f>
-        <v>8771.4285714285688</v>
-      </c>
+      <c r="B11" s="42"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="42">
-        <v>45738</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="24">
-        <f>INDEX(Consolidado[Esta],MATCH(Tabla5[[#This Row],[Partícipes Fondo]],Consolidado[Profesional],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="44">
-        <v>17000</v>
-      </c>
-      <c r="F12" s="44">
-        <f>SUMIF(Costo_Almuerzo[Dia],Tabla5[[#This Row],[Dia]],Costo_Almuerzo[Valor])/COUNTIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]])</f>
-        <v>8228.5714285714294</v>
-      </c>
-      <c r="G12" s="44">
-        <f>((SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Valor])-SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Costo]))/SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Esta]))*Tabla5[[#This Row],[Esta]]</f>
-        <v>8771.4285714285688</v>
-      </c>
+      <c r="B12" s="42"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="42">
-        <v>45738</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="24">
-        <f>INDEX(Consolidado[Esta],MATCH(Tabla5[[#This Row],[Partícipes Fondo]],Consolidado[Profesional],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="44">
-        <v>17000</v>
-      </c>
-      <c r="F13" s="44">
-        <f>SUMIF(Costo_Almuerzo[Dia],Tabla5[[#This Row],[Dia]],Costo_Almuerzo[Valor])/COUNTIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]])</f>
-        <v>8228.5714285714294</v>
-      </c>
-      <c r="G13" s="44">
-        <f>((SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Valor])-SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Costo]))/SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Esta]))*Tabla5[[#This Row],[Esta]]</f>
-        <v>8771.4285714285688</v>
-      </c>
+      <c r="B13" s="42"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="42">
-        <v>45738</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="24">
-        <f>INDEX(Consolidado[Esta],MATCH(Tabla5[[#This Row],[Partícipes Fondo]],Consolidado[Profesional],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="44">
-        <v>17000</v>
-      </c>
-      <c r="F14" s="44">
-        <f>SUMIF(Costo_Almuerzo[Dia],Tabla5[[#This Row],[Dia]],Costo_Almuerzo[Valor])/COUNTIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]])</f>
-        <v>8228.5714285714294</v>
-      </c>
-      <c r="G14" s="44">
-        <f>((SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Valor])-SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Costo]))/SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Esta]))*Tabla5[[#This Row],[Esta]]</f>
-        <v>8771.4285714285688</v>
-      </c>
+      <c r="B14" s="42"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="42">
-        <v>45738</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="24">
-        <f>INDEX(Consolidado[Esta],MATCH(Tabla5[[#This Row],[Partícipes Fondo]],Consolidado[Profesional],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E15" s="44">
-        <v>17000</v>
-      </c>
-      <c r="F15" s="44">
-        <f>SUMIF(Costo_Almuerzo[Dia],Tabla5[[#This Row],[Dia]],Costo_Almuerzo[Valor])/COUNTIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]])</f>
-        <v>8228.5714285714294</v>
-      </c>
-      <c r="G15" s="44">
-        <f>((SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Valor])-SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Costo]))/SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Esta]))*Tabla5[[#This Row],[Esta]]</f>
-        <v>8771.4285714285688</v>
-      </c>
+      <c r="B15" s="42"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="42">
-        <v>45738</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="24">
-        <f>INDEX(Consolidado[Esta],MATCH(Tabla5[[#This Row],[Partícipes Fondo]],Consolidado[Profesional],0))</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="44">
-        <v>17000</v>
-      </c>
-      <c r="F16" s="44">
-        <f>SUMIF(Costo_Almuerzo[Dia],Tabla5[[#This Row],[Dia]],Costo_Almuerzo[Valor])/COUNTIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]])</f>
-        <v>8228.5714285714294</v>
-      </c>
-      <c r="G16" s="44">
-        <f>((SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Valor])-SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Costo]))/SUMIF(Tabla5[Dia],Tabla5[[#This Row],[Dia]],Tabla5[Esta]))*Tabla5[[#This Row],[Esta]]</f>
-        <v>8771.4285714285688</v>
-      </c>
+      <c r="B16" s="42"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:D16">
@@ -11313,23 +11034,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8B92AB-ADD9-44B4-9FFD-3954EF540DEB}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="36"/>
+    <col min="1" max="1" width="2" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="66"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="83"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D6" s="83"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11358,76 +11074,76 @@
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="H2" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="I2" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="J2" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="K2" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="L2" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="M2" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="N2" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="55" t="s">
+      <c r="O2" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="P2" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="55" t="s">
+      <c r="Q2" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="55" t="s">
+      <c r="R2" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="55" t="s">
+      <c r="S2" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="55" t="s">
+      <c r="T2" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="55" t="s">
+      <c r="U2" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="55" t="s">
+      <c r="V2" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="55" t="s">
+      <c r="W2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="55" t="s">
+      <c r="X2" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="V2" s="55" t="s">
+      <c r="Y2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="W2" s="55" t="s">
+      <c r="Z2" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="X2" s="55" t="s">
+      <c r="AA2" s="56" t="s">
         <v>67</v>
-      </c>
-      <c r="Y2" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z2" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA2" s="56" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:27" s="36" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -11440,76 +11156,76 @@
         <v>22</v>
       </c>
       <c r="D5" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="H5" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="I5" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="J5" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="K5" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="L5" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="M5" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="N5" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="O5" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="P5" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="55" t="s">
+      <c r="Q5" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="55" t="s">
+      <c r="R5" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="P5" s="55" t="s">
+      <c r="S5" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="Q5" s="55" t="s">
+      <c r="T5" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="55" t="s">
+      <c r="U5" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="S5" s="55" t="s">
+      <c r="V5" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="T5" s="55" t="s">
+      <c r="W5" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="U5" s="55" t="s">
+      <c r="X5" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="V5" s="55" t="s">
+      <c r="Y5" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="W5" s="55" t="s">
+      <c r="Z5" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="X5" s="55" t="s">
+      <c r="AA5" s="56" t="s">
         <v>67</v>
-      </c>
-      <c r="Y5" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z5" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA5" s="56" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.2">
@@ -11518,7 +11234,7 @@
       </c>
       <c r="C6" s="57">
         <f>INDEX(Consolidado[Esta],MATCH(Tabla8[[#This Row],[Profesional]],Consolidado[Profesional],0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.2">
@@ -11595,11 +11311,11 @@
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B15" s="57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="57">
         <f>INDEX(Consolidado[Esta],MATCH(Tabla8[[#This Row],[Profesional]],Consolidado[Profesional],0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.2">
@@ -11659,7 +11375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4695D4C8-B5A8-470C-8F36-938E6AF1D708}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -11683,91 +11399,91 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="79"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="5">
         <v>4000</v>
       </c>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="9">
         <f>+SUM(E10:E28)</f>
         <v>201900</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="5">
         <v>1000</v>
       </c>
-      <c r="G6" s="79" t="s">
+      <c r="G6" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
       <c r="K6" s="7">
         <v>100000</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="6">
         <v>20</v>
       </c>
-      <c r="G7" s="81" t="s">
+      <c r="G7" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
       <c r="K7" s="10">
         <f>+K5-K6</f>
         <v>101900</v>
